--- a/src/test/resources/testdataVT/Career.xlsx
+++ b/src/test/resources/testdataVT/Career.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tester\TestWeb\testappium\src\test\resources\testdataVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8739598-B7A2-4FA3-A89B-B36EB06667BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E53E3CF-5EF1-4C37-8A7D-4FC53E324FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA606D9-3714-4DF7-8482-C2117857E9C0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CA606D9-3714-4DF7-8482-C2117857E9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dịch vụ" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>Nghề</t>
   </si>
   <si>
-    <t>Kỹ sư Hóa học</t>
-  </si>
-  <si>
     <t>Career</t>
   </si>
   <si>
-    <t>Chemical Engineer</t>
+    <t>Giáo viên tiếng Hàn</t>
+  </si>
+  <si>
+    <t>Korea Teacher</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,15 +430,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdataVT/Career.xlsx
+++ b/src/test/resources/testdataVT/Career.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tester\TestWeb\testappium\src\test\resources\testdataVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E53E3CF-5EF1-4C37-8A7D-4FC53E324FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F9E584-8055-4ACC-A219-7302351F4164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CA606D9-3714-4DF7-8482-C2117857E9C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA606D9-3714-4DF7-8482-C2117857E9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dịch vụ" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Career</t>
   </si>
   <si>
-    <t>Giáo viên tiếng Hàn</t>
+    <t>Sửa chữa nhà</t>
   </si>
   <si>
-    <t>Korea Teacher</t>
+    <t>House repair</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testdataVT/Career.xlsx
+++ b/src/test/resources/testdataVT/Career.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tester\TestWeb\testappium\src\test\resources\testdataVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F9E584-8055-4ACC-A219-7302351F4164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E66EBD7-667C-472A-A9CC-0C612A9A0EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CA606D9-3714-4DF7-8482-C2117857E9C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6CA606D9-3714-4DF7-8482-C2117857E9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dịch vụ" sheetId="1" r:id="rId1"/>
+    <sheet name="Dịch vụ (Sai)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,18 +34,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Nghề</t>
   </si>
   <si>
-    <t>Career</t>
-  </si>
-  <si>
     <t>Sửa chữa nhà</t>
   </si>
   <si>
     <t>House repair</t>
+  </si>
+  <si>
+    <t>Cải tạo nhà</t>
+  </si>
+  <si>
+    <t>Sơn nhà</t>
+  </si>
+  <si>
+    <t>Vệ sinh máy lạnh</t>
+  </si>
+  <si>
+    <t>Sửa máy lạnh</t>
+  </si>
+  <si>
+    <t>Ngành</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>gội đầu</t>
+  </si>
+  <si>
+    <t>làm hộ bài tập</t>
+  </si>
+  <si>
+    <t>vệ sinh laptop</t>
+  </si>
+  <si>
+    <t>photoshop</t>
   </si>
 </sst>
 </file>
@@ -413,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97899274-6163-4218-BD7C-DA773966A06B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,22 +455,121 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9ACB06-9B71-41C3-B7D9-31FA12656FED}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>